--- a/output/MagnusL.xlsx
+++ b/output/MagnusL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F67B5-1687-44D2-8578-7E30CBF95875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEF2417-916D-40A2-AF04-F07BF0453552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1140" windowWidth="16200" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klasser" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
   <si>
     <t>Klass</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Team Aquila</t>
-  </si>
-  <si>
     <t>Domare moment1 (A,B,C,D)</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Föreningen Uppsala Voltige (SE)</t>
   </si>
   <si>
-    <t>Salaortens Ryttarförening (SE)</t>
-  </si>
-  <si>
     <t>Noah Wall</t>
   </si>
   <si>
@@ -117,334 +111,250 @@
     <t>Kajsa Müller</t>
   </si>
   <si>
-    <t>Team Cassiopeia</t>
-  </si>
-  <si>
     <t>Julia Stålenheim</t>
   </si>
   <si>
-    <t>Stockholms Voltigeförening (SE)</t>
-  </si>
-  <si>
-    <t>Falu Ridklubb (SE)</t>
-  </si>
-  <si>
     <t>Tindra Öberg</t>
   </si>
   <si>
-    <t>Ellen Sigurdsson</t>
-  </si>
-  <si>
     <t>Charlotte Kemna</t>
   </si>
   <si>
-    <t>Team Andromeda</t>
-  </si>
-  <si>
-    <t>Lisa Österlund</t>
-  </si>
-  <si>
     <t>Lovisa Baeckström</t>
   </si>
   <si>
-    <t>Elin Åkerberg</t>
-  </si>
-  <si>
-    <t>Ellen Furn</t>
-  </si>
-  <si>
-    <t>Evelina Lowen</t>
-  </si>
-  <si>
-    <t>Team Smaragd</t>
-  </si>
-  <si>
-    <t>Team Indus</t>
-  </si>
-  <si>
     <t>Häst,Grund,Grund</t>
   </si>
   <si>
     <t>Häst,Tekniskt,Artistiskt</t>
   </si>
   <si>
-    <t>Grund, Grund</t>
-  </si>
-  <si>
-    <t>Kür, Kür</t>
-  </si>
-  <si>
-    <t>Emma Rönndahl</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>id_6881_4_7625</t>
-  </si>
-  <si>
-    <t>id_6882_4_7625</t>
-  </si>
-  <si>
-    <t>Ester Udd</t>
-  </si>
-  <si>
-    <t>id_6884_4_7625</t>
-  </si>
-  <si>
-    <t>Elda Lindberg</t>
-  </si>
-  <si>
-    <t>id_6883_4_7625</t>
-  </si>
-  <si>
-    <t>Svea Wikström</t>
-  </si>
-  <si>
-    <t>id_6859_4_7625</t>
-  </si>
-  <si>
-    <t>Lag Sorel</t>
-  </si>
-  <si>
-    <t>id_6215_7_7625</t>
-  </si>
-  <si>
-    <t>SORF Lättklasslag</t>
-  </si>
-  <si>
-    <t>id_6216_7_7625</t>
-  </si>
-  <si>
-    <t>Hamre voltige lag Rosa</t>
-  </si>
-  <si>
-    <t>Hamre Ridklubb (SE)</t>
-  </si>
-  <si>
-    <t>id_6217_7_7625</t>
-  </si>
-  <si>
-    <t>id_6218_7_7625</t>
-  </si>
-  <si>
-    <t>Team Safir</t>
-  </si>
-  <si>
-    <t>id_6219_7_7625</t>
-  </si>
-  <si>
-    <t>Team Luna</t>
-  </si>
-  <si>
-    <t>Fortuna Voltigeförening (SE)</t>
-  </si>
-  <si>
-    <t>id_6203_5_7625</t>
-  </si>
-  <si>
-    <t>SORF Juniorlag</t>
-  </si>
-  <si>
-    <t>id_6204_5_7625</t>
-  </si>
-  <si>
-    <t>Team Crux</t>
-  </si>
-  <si>
-    <t>id_6205_5_7625</t>
-  </si>
-  <si>
-    <t>id_6206_5_7625</t>
-  </si>
-  <si>
-    <t>Hamre voltige lag Vit</t>
-  </si>
-  <si>
-    <t>id_6207_5_7625</t>
-  </si>
-  <si>
-    <t>SORF Team Trix</t>
-  </si>
-  <si>
-    <t>id_6208_5_7625</t>
-  </si>
-  <si>
-    <t>id_6209_5_7625</t>
-  </si>
-  <si>
-    <t>id_6210_6_7625</t>
-  </si>
-  <si>
-    <t>Team Monty</t>
-  </si>
-  <si>
-    <t>id_6211_6_7625</t>
-  </si>
-  <si>
-    <t>id_6212_6_7625</t>
-  </si>
-  <si>
-    <t>SORF Seniorlag</t>
-  </si>
-  <si>
-    <t>id_6213_6_7625</t>
-  </si>
-  <si>
-    <t>Hamre seniorlag</t>
-  </si>
-  <si>
-    <t>id_6214_6_7625</t>
-  </si>
-  <si>
-    <t>Tindra Linn</t>
-  </si>
-  <si>
-    <t>id_6220_8_7625</t>
-  </si>
-  <si>
-    <t>Alice Sara</t>
-  </si>
-  <si>
-    <t>id_6221_8_7625</t>
-  </si>
-  <si>
-    <t>id_6898_2_7625</t>
-  </si>
-  <si>
     <t>Linn Odensten</t>
   </si>
   <si>
-    <t>id_6897_2_7625</t>
-  </si>
-  <si>
-    <t>id_6894_1_7625</t>
-  </si>
-  <si>
-    <t>id_6875_2_7625</t>
-  </si>
-  <si>
-    <t>id_6873_1_7625</t>
-  </si>
-  <si>
-    <t>id_6874_1_7625</t>
-  </si>
-  <si>
-    <t>Ida Welander</t>
-  </si>
-  <si>
-    <t>id_6893_2_7625</t>
-  </si>
-  <si>
-    <t>Agnes Karlsson </t>
-  </si>
-  <si>
-    <t>id_6892_2_7625</t>
-  </si>
-  <si>
-    <t>Maja Pettersson</t>
-  </si>
-  <si>
-    <t>id_6864_2_7625</t>
-  </si>
-  <si>
-    <t>Agnes Kumm</t>
-  </si>
-  <si>
-    <t>id_6872_1_7625</t>
-  </si>
-  <si>
-    <t>id_6899_2_7625</t>
-  </si>
-  <si>
-    <t>id_6900_2_7625</t>
-  </si>
-  <si>
     <t>Nora Müller</t>
   </si>
   <si>
-    <t>id_6901_2_7625</t>
-  </si>
-  <si>
-    <t>Karolina Bäck</t>
-  </si>
-  <si>
-    <t>id_6851_2_7625</t>
-  </si>
-  <si>
-    <t>id_6850_1_7625</t>
-  </si>
-  <si>
     <t>Leelo Lennerman</t>
   </si>
   <si>
-    <t>id_6896_1_7625</t>
-  </si>
-  <si>
-    <t>id_6895_1_7625</t>
-  </si>
-  <si>
-    <t>Anna-Tuva Andersson</t>
-  </si>
-  <si>
-    <t>id_6927_2_7625</t>
-  </si>
-  <si>
-    <t>Malin Grönberg</t>
-  </si>
-  <si>
-    <t>Nyckelryttarna (SE)</t>
-  </si>
-  <si>
-    <t>id_6860_3_7625</t>
-  </si>
-  <si>
-    <t>Alexandra Eklund</t>
-  </si>
-  <si>
-    <t>id_6849_3_7625</t>
-  </si>
-  <si>
-    <t>id_6902_3_7625</t>
-  </si>
-  <si>
-    <t>id_6903_3_7625</t>
-  </si>
-  <si>
-    <t>Svår klass individuellt, minior (8-14 år)</t>
-  </si>
-  <si>
-    <t>Svår klass individuellt, juniorer (14-18 år)</t>
-  </si>
-  <si>
-    <t>Svår klass individuellt, seniorer (16 år och äldre)</t>
-  </si>
-  <si>
-    <t>Tekn kür</t>
-  </si>
-  <si>
-    <t>Clear round, individuellt (alla åldersklasser samt barn upp till 7 år)</t>
-  </si>
-  <si>
-    <t>Anna Andersson, Anna Torssander</t>
-  </si>
-  <si>
-    <t>Svår klass lag junior, 3-9 st</t>
-  </si>
-  <si>
-    <t>Svår klass lag senior, 3-9 st</t>
-  </si>
-  <si>
-    <t>Lätt klass lag typ 1, 3-9 st</t>
-  </si>
-  <si>
-    <t>Grund,Grund</t>
-  </si>
-  <si>
-    <t>Pas-de-deux (ingen åldersgräns)</t>
-  </si>
-  <si>
-    <t>-, Anna Torssander, Anna Andersson</t>
+    <t>Adele Rollgard</t>
+  </si>
+  <si>
+    <t>Linda Jenvall</t>
+  </si>
+  <si>
+    <t>Belvedere</t>
+  </si>
+  <si>
+    <t>id_8202_5_8694</t>
+  </si>
+  <si>
+    <t>Iris Kling</t>
+  </si>
+  <si>
+    <t>id_8203_6_8694</t>
+  </si>
+  <si>
+    <t>Calouha</t>
+  </si>
+  <si>
+    <t>id_8204_5_8695</t>
+  </si>
+  <si>
+    <t>Tuva Westerlund</t>
+  </si>
+  <si>
+    <t>Marie-louise Westerlund</t>
+  </si>
+  <si>
+    <t>Caramba</t>
+  </si>
+  <si>
+    <t>id_8205_5_8696</t>
+  </si>
+  <si>
+    <t>id_8206_5_8696</t>
+  </si>
+  <si>
+    <t>Linnea Jennische</t>
+  </si>
+  <si>
+    <t>id_8207_6_8696</t>
+  </si>
+  <si>
+    <t>Belvedere_</t>
+  </si>
+  <si>
+    <t>id_8208_5_8697</t>
+  </si>
+  <si>
+    <t>id_8209_5_8697</t>
+  </si>
+  <si>
+    <t>Christina Müller</t>
+  </si>
+  <si>
+    <t>Sikehamn Hästsportklubb (SE)</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>id_8210_4_8692</t>
+  </si>
+  <si>
+    <t>Linnea Pedersen</t>
+  </si>
+  <si>
+    <t>id_8211_6_8692</t>
+  </si>
+  <si>
+    <t>Caramba_</t>
+  </si>
+  <si>
+    <t>id_8212_5_8699</t>
+  </si>
+  <si>
+    <t>Filippa Agerhill</t>
+  </si>
+  <si>
+    <t>id_8213_5_8699</t>
+  </si>
+  <si>
+    <t>id_8214_5_8699</t>
+  </si>
+  <si>
+    <t>Sofia Börling</t>
+  </si>
+  <si>
+    <t>Diesel_</t>
+  </si>
+  <si>
+    <t>id_8215_5_8698</t>
+  </si>
+  <si>
+    <t>id_8216_6_8698</t>
+  </si>
+  <si>
+    <t>Petter Stålenheim</t>
+  </si>
+  <si>
+    <t>Easy Fly af Björnklo</t>
+  </si>
+  <si>
+    <t>id_8217_4_8693</t>
+  </si>
+  <si>
+    <t>Joanna Stålenheim</t>
+  </si>
+  <si>
+    <t>id_8218_4_8693</t>
+  </si>
+  <si>
+    <t>Sixten Antti</t>
+  </si>
+  <si>
+    <t>id_8219_15_8695</t>
+  </si>
+  <si>
+    <t>Selma Antti</t>
+  </si>
+  <si>
+    <t>id_8220_15_8695</t>
+  </si>
+  <si>
+    <t>Simone Zenkell</t>
+  </si>
+  <si>
+    <t>id_8221_15_8695</t>
+  </si>
+  <si>
+    <t>Maria Nöjd</t>
+  </si>
+  <si>
+    <t>id_8222_15_8692</t>
+  </si>
+  <si>
+    <t>Ebba Wallquist</t>
+  </si>
+  <si>
+    <t>id_8223_15_8692</t>
+  </si>
+  <si>
+    <t>Elisabeth Moe</t>
+  </si>
+  <si>
+    <t>id_8224_15_8692</t>
+  </si>
+  <si>
+    <t>Lovisa Lamvert</t>
+  </si>
+  <si>
+    <t>id_8225_15_8692</t>
+  </si>
+  <si>
+    <t>Hilma Tunell Bernström</t>
+  </si>
+  <si>
+    <t>id_8226_16_8693</t>
+  </si>
+  <si>
+    <t>Wilemina Ahlford</t>
+  </si>
+  <si>
+    <t>id_8227_16_8693</t>
+  </si>
+  <si>
+    <t>Tyra Normark Momquist</t>
+  </si>
+  <si>
+    <t>id_8228_16_8693</t>
+  </si>
+  <si>
+    <t>Erik Lamvert</t>
+  </si>
+  <si>
+    <t>id_8229_16_8692</t>
+  </si>
+  <si>
+    <t>Keira Sönnert</t>
+  </si>
+  <si>
+    <t>id_8230_16_8692</t>
+  </si>
+  <si>
+    <t>id_8231_16_8692</t>
+  </si>
+  <si>
+    <t>Skrittklass, individuell</t>
+  </si>
+  <si>
+    <t>Grund, Grund, Grund</t>
+  </si>
+  <si>
+    <t>Kür, Kür, Kür</t>
+  </si>
+  <si>
+    <t>Anna Andersson, Susanne Sturesson, Anna Torssander</t>
+  </si>
+  <si>
+    <t>Mellanklass skritt</t>
+  </si>
+  <si>
+    <t>Kür, Kür,Kür</t>
+  </si>
+  <si>
+    <t>Svårklass, Senior utan teknisk kür</t>
+  </si>
+  <si>
+    <t>Anna Torssander, Anna Andersson, Sussie Sturesson</t>
+  </si>
+  <si>
+    <t>Svår klass, Junior</t>
+  </si>
+  <si>
+    <t>Svår klass, Minior</t>
   </si>
 </sst>
 </file>
@@ -822,10 +732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -865,24 +775,24 @@
         <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -896,28 +806,28 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -931,28 +841,28 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -961,39 +871,33 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1007,28 +911,28 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="19.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1042,120 +946,21 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1166,10 +971,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1196,202 +1001,202 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1399,19 +1204,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1419,19 +1224,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1439,19 +1244,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1459,659 +1264,339 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="1">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="1">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/output/MagnusL.xlsx
+++ b/output/MagnusL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEF2417-916D-40A2-AF04-F07BF0453552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BD535-5BD3-46E6-BDBD-09B703D47318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1140" windowWidth="16200" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="2138" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klasser" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>Klass</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Christina Müller</t>
   </si>
   <si>
-    <t>Sikehamn Hästsportklubb (SE)</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
@@ -282,12 +279,6 @@
     <t>id_8223_15_8692</t>
   </si>
   <si>
-    <t>Elisabeth Moe</t>
-  </si>
-  <si>
-    <t>id_8224_15_8692</t>
-  </si>
-  <si>
     <t>Lovisa Lamvert</t>
   </si>
   <si>
@@ -355,6 +346,9 @@
   </si>
   <si>
     <t>Svår klass, Minior</t>
+  </si>
+  <si>
+    <t>Grund,Grund,Grund</t>
   </si>
 </sst>
 </file>
@@ -734,8 +728,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -792,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -806,18 +800,18 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -827,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -841,18 +835,18 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -862,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -884,10 +878,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -897,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -919,10 +913,10 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -932,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -954,10 +948,10 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -971,10 +965,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1170,13 +1164,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1184,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -1193,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1213,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1224,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>44</v>
@@ -1233,10 +1227,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1253,10 +1247,10 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1264,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
@@ -1273,10 +1267,10 @@
         <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1293,10 +1287,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1307,16 +1301,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1324,19 +1318,19 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1344,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>36</v>
@@ -1356,7 +1350,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1364,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>36</v>
@@ -1376,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1384,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>36</v>
@@ -1396,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1404,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
@@ -1413,10 +1407,10 @@
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1424,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>53</v>
@@ -1433,10 +1427,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1444,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
@@ -1453,30 +1447,30 @@
         <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1484,19 +1478,19 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1504,19 +1498,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1524,19 +1518,19 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1544,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
@@ -1553,10 +1547,10 @@
         <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1564,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
@@ -1573,30 +1567,10 @@
         <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/output/MagnusL.xlsx
+++ b/output/MagnusL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BD535-5BD3-46E6-BDBD-09B703D47318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B176D-10F4-4552-9F20-35026CFD61D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="5400" yWindow="2138" windowWidth="16200" windowHeight="9397" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Klasser" sheetId="2" r:id="rId1"/>
@@ -425,11 +425,11 @@
   </x:cellStyleXfs>
   <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment vertical="top" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -755,13 +755,13 @@
   <x:sheetPr codeName="Sheet2">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:O6"/>
+  <x:dimension ref="A1:O1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D12" sqref="D12"/>
+    <x:sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <x:selection activeCell="B10" sqref="B10"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="10.308281" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <x:sheetFormatPr defaultColWidth="13.8425" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <x:sheetData>
     <x:row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <x:c r="A1" s="3" t="s">
@@ -810,180 +810,150 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:15" customFormat="1" ht="19.15" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A2" s="4" t="n">
+    <x:row r="2" spans="1:15">
+      <x:c r="A2" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B2" s="4" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="n">
+      <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="4" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E2" s="4" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F2" s="4" t="s"/>
-      <x:c r="G2" s="4" t="s"/>
-      <x:c r="H2" s="4" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="I2" s="4" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="J2" s="4" t="s"/>
-      <x:c r="K2" s="4" t="s"/>
-      <x:c r="L2" s="4" t="s">
+      <x:c r="L2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M2" s="4" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="N2" s="4" t="s"/>
-      <x:c r="O2" s="4" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:15" customFormat="1" ht="19.15" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A3" s="4" t="n">
+    </x:row>
+    <x:row r="3" spans="1:15">
+      <x:c r="A3" s="0" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="n">
+      <x:c r="C3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D3" s="4" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E3" s="4" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F3" s="4" t="s"/>
-      <x:c r="G3" s="4" t="s"/>
-      <x:c r="H3" s="4" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="I3" s="4" t="s">
+      <x:c r="I3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="J3" s="4" t="s"/>
-      <x:c r="K3" s="4" t="s"/>
-      <x:c r="L3" s="4" t="s">
+      <x:c r="L3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M3" s="4" t="s">
+      <x:c r="M3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="N3" s="4" t="s"/>
-      <x:c r="O3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:15" customFormat="1" ht="19.15" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A4" s="4" t="n">
+    </x:row>
+    <x:row r="4" spans="1:15">
+      <x:c r="A4" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B4" s="4" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="n">
+      <x:c r="C4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D4" s="4" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E4" s="4" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F4" s="4" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="4" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I4" s="4" t="s">
+      <x:c r="I4" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J4" s="4" t="s"/>
-      <x:c r="K4" s="4" t="s"/>
-      <x:c r="L4" s="4" t="s">
+      <x:c r="L4" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M4" s="4" t="s">
+      <x:c r="M4" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="N4" s="4" t="s"/>
-      <x:c r="O4" s="4" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:15" customFormat="1" ht="19.15" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A5" s="4" t="n">
+    </x:row>
+    <x:row r="5" spans="1:15">
+      <x:c r="A5" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B5" s="4" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="4" t="n">
+      <x:c r="C5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D5" s="4" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E5" s="4" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F5" s="4" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I5" s="4" t="s">
+      <x:c r="I5" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J5" s="4" t="s"/>
-      <x:c r="K5" s="4" t="s"/>
-      <x:c r="L5" s="4" t="s">
+      <x:c r="L5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M5" s="4" t="s">
+      <x:c r="M5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="N5" s="4" t="s"/>
-      <x:c r="O5" s="4" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:15" customFormat="1" ht="19.15" customHeight="1" x14ac:dyDescent="0.45">
-      <x:c r="A6" s="4" t="n">
+    </x:row>
+    <x:row r="6" spans="1:15">
+      <x:c r="A6" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B6" s="4" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C6" s="4" t="n">
+      <x:c r="C6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D6" s="4" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E6" s="4" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F6" s="4" t="s"/>
-      <x:c r="G6" s="4" t="s"/>
-      <x:c r="H6" s="4" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I6" s="4" t="s">
+      <x:c r="I6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J6" s="4" t="s"/>
-      <x:c r="K6" s="4" t="s"/>
-      <x:c r="L6" s="4" t="s">
+      <x:c r="L6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="M6" s="4" t="s">
+      <x:c r="M6" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="N6" s="4" t="s"/>
-      <x:c r="O6" s="4" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
